--- a/results/2014年第3季.xlsx
+++ b/results/2014年第3季.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -739,6 +739,7586 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>173</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>469,158</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>367,746</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>75,571</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>85,579</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>117,818</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>-54,192</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>-122,001</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>117,268</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>449,064</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>1,383,385</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>3,095,187</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>43.85</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>6,184,772</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2,108,565</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1,489,606</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1,324,468</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1,020,114</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>-1,471,464</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>-2,827,730</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>-715,819</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>5,446,888</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>7,704,400</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>31,576,343</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>7,000,649</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>925,546</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>418,426</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>514,833</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1,043,898</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>-370,113</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>-1,571,983</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>660,115</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>19,988,703</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>15,562,045</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>41,530,285</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>215.5</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>8,517,746</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1,616,118</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>911,855</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>894,620</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>-60,204</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>-32,534</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>-1,894,479</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>-87,070</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>5,397,228</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>1,612,965</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>21,145,628</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>216.5</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>212,236</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>118,159</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>75,636</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>72,596</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>90,445</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>-4,075</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>-41,487</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>86,035</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>201,881</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>9.79</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>15,598</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>980,247</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>166</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>15,214,045</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1,680,091</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>939,899</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>863,196</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1,946,743</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2,261,223</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>-3,001,236</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>1,890,624</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>24,936,477</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>6,035,174</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>44,111,493</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2,226</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1,174</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>-29,453</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>179,653</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>-56,944</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>91,076</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>-57,797</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>101,566</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>90,201</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>2,085,810</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>3,068,956</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1,136,952</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>865,474</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>753,069</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1,040,761</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>439,299</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>-1,363,000</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>948,708</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>6,352,955</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>11,906,537</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>21,649,555</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1,004,897</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>126,062</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>8,031</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>-23,126</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>90,888</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>-61,144</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>-48,074</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>57,150</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>1,639,177</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>-1.91</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>-1.16</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>782,192</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>2,849,200</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>-0.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>4,684,972</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1,215,993</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>896,589</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>782,849</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1,006,867</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>-1,326,033</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>-1,156,454</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>702,917</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>16,167,052</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>12,820,056</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>39,039,398</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>4,541,137</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>493,128</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>212,203</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>177,734</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>485,558</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>-147,008</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>-260,834</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>336,047</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>4,167,562</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>2,847,154</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>9,387,537</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>10.55</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>8,732,452</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>-187,181</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>-490,443</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>-268,971</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>230,153</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>-552,195</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>1,298,830</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>-248,519</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>14,851,829</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>-0.87</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>-0.55</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>18,203,705</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>45,644,124</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>-0.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>304,774</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>67,843</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>3,776</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8,271</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>-29,069</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>-5,098</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>13,319</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>-33,688</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>620,029</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>590,943</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>1,405,681</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>207.5</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>15,134,531</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5,607,948</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>519,610</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>484,509</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1,102,385</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>-676,996</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>452,259</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>373,607</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>19,380,672</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>10.69</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>9,243,267</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>24,146,864</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>440,788</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>79,350</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>-9,112</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8,734</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>-28,487</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>-87,033</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>132,493</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>-57,714</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>1,651,397</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>1,367,213</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>2,785,917</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1,576,688</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>528,753</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>385,481</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>368,771</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>702,170</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>-575,793</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>154,839</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>133,646</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>5,234,819</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>9,561,619</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>14,128,784</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>430,270</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>112,890</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>15,213</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>-20,774</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>240,343</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>88,787</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>679,062</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>1,247,324</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>178,204</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>147,652</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>136,622</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>649,040</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>-382,868</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>-68,004</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>277,061</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>4,501,360</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>6,452,623</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>8,864,001</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>434,469</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>141,189</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>73,269</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>67,466</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>405,791</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>-91,722</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>-12,882</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>313,276</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>977,093</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>675,307</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>2,000,895</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>66,645</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>45,648</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>-12,123</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>-10,356</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>-8,150</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>-20,185</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>36,049</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>-41,422</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>118,592</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>-2.22</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>-1.76</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>140,299</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>591,006</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>-0.17</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>25.95</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>843,092</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>177,922</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>130,948</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>119,422</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>93,324</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>-89,265</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>-12,953</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>12,147</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>630,947</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>1,024,261</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>2,584,183</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>103</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>1,322,674</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>621,806</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>251,649</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>237,490</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>212,017</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>-221,829</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>197,148</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>61,693</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>2,330,117</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>1,786,938</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>5,827,426</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>34</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>7,350,001</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>403,757</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>37,775</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>102,804</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>-249,668</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>48,676</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>-73,932</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>-255,077</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>3,776,614</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>3,853,809</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>7,970,593</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>7,433,266</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>464,208</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>49,457</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>134,279</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>-1,836,405</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>75,283</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>1,890,974</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>-1,856,633</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>15,301,599</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>4,603,784</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>24,008,029</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="n">
+        <v>17.55</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>5,883,600</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>244,327</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>119,284</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>107,539</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>-1,027,468</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>-211,022</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>1,161,446</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>-1,245,310</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>13,298,428</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>10,643,565</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>26,825,506</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="n">
+        <v>101</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>950,314</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>265,465</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>142,257</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>122,618</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>-3,173</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>-9,746</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>-22,235</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>-18,045</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>820,130</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>907,531</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>2,557,890</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="n">
+        <v>146.5</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>852,349</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>236,330</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>131,050</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>125,446</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>-200,983</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>-10,698</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>369,188</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>-207,712</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>1,115,506</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>14.56</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>215,940</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>2,254,531</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>9,769,343</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1,143,926</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>-151,453</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>-352,833</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>338,686</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>-129,523</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>-228,473</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>132,190</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>24,219,357</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>-2.17</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>-0.53</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>12,646,933</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>40,366,992</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>-0.39</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="n">
+        <v>7.86</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>192,514</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>-7,694</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>-18,162</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>-20,481</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>27,851</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>-10,111</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>26,415</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>245,895</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>-0.78</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>-0.71</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>378,099</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>2,873,969</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>-0.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="n">
+        <v>25.95</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>92,268,397</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>12,031,189</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>8,580,358</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7,120,772</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>15,395,396</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>-7,463,599</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>-16,620,211</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>6,074,639</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>360,199,251</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>460,903,831</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>684,360,542</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="n">
+        <v>6.89</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2,066,249</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>-51,267</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>-135,179</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>-167,986</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>-161,577</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>224,593</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>512,551</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>-204,665</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>9,249,824</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>-3.78</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>-1.04</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>10,005,450</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>13,607,515</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>-0.27</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>1,144,541</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>25,766</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>8,084</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>8,915</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>-99,640</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>-16,375</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>153,413</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>-122,110</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>2,084,385</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>1,002,884</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>6,212,443</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="n">
+        <v>92.2</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>457,646</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>278,089</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>90,576</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>75,514</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>88,637</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>-34,168</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>51,978</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>933,701</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>684,253</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>1,757,632</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>368,271</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>104,333</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>69,897</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>69,777</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>5,376</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>-22,711</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>-72,194</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>1,249</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>2,854,670</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>30,454</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>5,188,179</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>248,670</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>36,847</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>966</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>-910</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>-80,364</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>5,711</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>69,208</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>-81,092</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>523,656</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>-0.12</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>444,072</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>1,289,282</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>385,237</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>74,736</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>31,451</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>28,622</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>5,675</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>-3,199</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>-101,518</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>-2,553</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>339,372</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>293,321</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>1,648,105</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>1,055,934</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>-140,464</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>-283,505</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>-278,356</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>-48,472</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>-68,183</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>-1,035</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>-103,445</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>2,130,406</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>-10.18</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>-6.04</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>921,871</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>4,749,669</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>-3.03</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>440,051</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>60,694</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>1,967</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>13,566</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>-83,713</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>-67,148</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>220,940</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>-143,672</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>1,251,683</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>624,061</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>2,285,836</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>7,767,524</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2,206,016</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>227,248</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>-89,470</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>762,814</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>-951,720</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>-808,976</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>-216,436</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>28,073,262</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>-0.76</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>14,474,512</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>39,803,444</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>-0.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="n">
+        <v>9</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>1,553,132</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>482,327</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>-1,751</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>-38,022</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>133,035</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>-231,250</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>-123,791</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>-114,141</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>7,928,803</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>-0.61</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>4,948,852</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>14,155,618</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>-0.08</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>112,818,727</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>35,637,287</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>4,735,844</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3,541,025</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>11,765,479</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>-18,467,644</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>-1,744,974</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>4,097,116</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>251,700,585</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>157,084,806</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>395,057,218</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>2,937,712</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>-183,135</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>-658,009</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>-663,963</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>-396,651</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>-92,460</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>262,264</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>-497,315</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>13,462,867</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>-2.80</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>-1.60</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>21,595,177</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>36,846,308</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>-0.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>4,026,430</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>91,493</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>-403,498</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>-405,449</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>-29,285</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>-154,904</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>62,938</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>-26,596</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>11,466,068</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>-1.42</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>-0.87</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>22,690,059</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>39,776,784</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>-0.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>113,091,500</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>14,565,886</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>9,094,064</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>7,359,509</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>25,688,437</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>-3,258,448</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>-13,166,733</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>19,939,427</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>243,674,591</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>241,773,374</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>459,115,089</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="n">
+        <v>75.5</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>13,090,573</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>6,262,264</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>5,451,922</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>7,465,601</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>6,460,882</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>-2,577,709</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>-7,214,872</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>2,528,156</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>66,486,387</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>26.33</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>51,602,537</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>98,800,243</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="n">
+        <v>5.47</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>1,133,382</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>245,348</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>156,769</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>214,754</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>-154,573</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>21,327</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>-8,838</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>-156,058</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>9,802,389</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>16.63</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>3,119,839</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>11,201,959</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="n">
+        <v>101.5</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>950,494,021</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>67,497,296</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>31,372,557</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>34,624,630</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>93,106,980</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>-106,550,698</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>-15,992,800</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>80,155,492</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>1,292,908,418</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>347,190,993</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>2,201,400,093</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="n">
+        <v>26.55</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>3,355,039</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>154,265</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>18,435</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>23,709</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>91,274</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>-16,281</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>-113,681</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>60,371</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>10,514,334</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>1,435,217</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>19,361,070</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="n">
+        <v>30.35</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>10,652,589</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>5,277,069</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>409,936</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>384,940</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>1,034,848</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>-851,547</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>-3,818,353</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>500,276</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>68,252,739</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>47,861,828</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>106,657,393</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="n">
+        <v>73.09999999999999</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>2,287,799</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>928,662</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>505,861</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3,487,056</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>399,860</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>3,441,355</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>-4,655,143</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>404,270</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>18,934,279</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>3,330,374</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>120,442,170</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="n">
+        <v>16</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>198,735</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>33,294</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>18,158</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>24,028</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>-7,163</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>-760</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>-7,888</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>168,994</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>421,941</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>2,396,609</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="n">
+        <v>32.55</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>10,788,117</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2,077,340</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>851,977</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>708,539</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>803,135</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>-796,053</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>-678,218</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>444,681</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>26,430,075</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>13,393,598</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>47,131,240</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="n">
+        <v>68.3</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>34,142,065</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>9,537,673</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>5,696,486</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4,664,088</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>7,682,644</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>-2,989,335</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>-11,141,623</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>4,721,604</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>82,757,280</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>106,710,591</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>164,776,154</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="n">
+        <v>92.2</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>56,140,678</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>19,682,498</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>11,170,759</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>9,796,123</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>18,411,745</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>-6,655,670</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>-31,823,979</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>10,529,786</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>74,055,242</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>298,193,968</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>434,390,406</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="n">
+        <v>20.55</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>5,563,737</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>753,731</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>58,420</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>135,301</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>459,291</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>-1,443,915</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>894,883</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>349,376</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>9,475,759</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>3,299,705</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>18,893,754</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>3,411</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2,321</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>-32,051</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>63,815</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>1,023,049</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>-3,874</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>-815,753</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>1,023,049</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>8,658,846</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>636</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>15,665,393</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="n">
+        <v>76</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>236,129,988</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>6,979,585</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>4,578,985</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>6,810,902</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>-4,162,676</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>1,529,229</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>3,828,016</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>-5,466,075</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>257,300,193</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>148,662,201</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>501,795,948</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="n">
+        <v>21.95</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>1,274,047</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>398,178</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>80,667</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>65,032</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>42,709</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>108,829</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>-7,996</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>10,774</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>4,952,760</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>4,249,416</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>10,206,194</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="n">
+        <v>141</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>584,861</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>272,491</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>-110,506</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>-104,186</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>-760,522</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>373,890</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>484,644</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>-793,609</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>1,562,054</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>-2.40</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>-0.88</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>1,405,398</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>8,934,340</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>-0.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="n">
+        <v>37.75</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>5,082,064</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1,071,930</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>166,528</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>241,481</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>668,371</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>-978,932</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>107,064</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>-340,649</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>15,261,202</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>16,478,985</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>32,990,497</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="n">
+        <v>336</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>8,110,603</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1,106,105</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>247,361</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1,443,622</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>-362,348</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>5,651,758</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>-5,841,000</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>-370,816</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>9,339,070</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>1,750,848</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>32,712,426</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="n">
+        <v>43.8</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>1,048,591</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>333,094</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>206,440</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>171,246</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>167,834</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>-91,227</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>-83,622</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>50,011</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>3,889,038</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>5,028,798</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>8,440,618</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="n">
+        <v>18</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>37,597,875</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>4,113,398</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>2,832,021</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2,475,408</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>4,779,543</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>-3,716,137</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>-1,207,548</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>4,264,205</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>124,184,645</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>97,715,900</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>186,446,736</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="n">
+        <v>21.05</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>1,118,693</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>114,899</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>68,634</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>59,449</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>390,141</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>-1,123,357</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>735,295</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>-1,633,620</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>21,303,367</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>27,283,138</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>29,891,455</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>59,400,821</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>12,384,577</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>3,095,402</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4,542,383</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>8,188,678</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>-6,775,877</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>-10,480,963</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>1,447,660</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>234,259,904</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>133,757,479</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>492,265,929</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="n">
+        <v>8.84</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>382,528</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>-9,168</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>-25,809</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>-10,036</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>119,675</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>12,617</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>-43,779</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>95,623</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>1,313,613</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>-0.32</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>-0.20</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>1,781,343</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>4,453,147</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>-0.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="n">
+        <v>30.55</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>505,765</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>154,249</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>71,656</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>54,932</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>34,757</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>-75,170</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>-114,926</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>-38,885</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>292,117</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>586,727</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>1,612,255</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="n">
+        <v>13.75</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>35,213,850</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>7,558,516</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>1,686,497</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2,579,339</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>12,039,302</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>-12,683,765</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>-6,658,604</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>-827,905</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>84,430,004</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>162,473,595</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>300,822,471</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="n">
+        <v>43.15</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>2,652,070</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>500,596</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>290,889</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>246,501</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>236,073</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>-136,210</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>-218,330</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>116,372</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>5,535,341</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>4,450,810</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>10,175,475</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="n">
+        <v>10</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>430,420</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>78,522</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>309</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>5,748</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>14,262</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>27,781</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>-119,302</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>45,993</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>327,925</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>1,356,312</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>4,232,297</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="n">
+        <v>27.35</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>4,393,956</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1,413,177</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>895,507</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>818,738</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>1,681,148</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>-2,282,812</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>290,903</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>-617,641</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>16,474,161</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>23,429,906</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>38,706,489</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="n">
+        <v>45.75</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>90,713,904</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>3,181,347</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>1,490,103</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1,549,509</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>5,867,223</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>115,265</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>591,934</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>5,847,955</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>91,723,050</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>6,396,196</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>134,984,132</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>6,719,231</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1,121,130</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>66,698</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>68,712</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>690,655</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>-165,346</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>10,186</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>514,395</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>5,566,805</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>2,611,946</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>10,351,218</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="n">
+        <v>57.3</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>10,777,192</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>974,889</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>318,811</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>371,679</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>-402,724</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>-617,240</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>574,940</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>-440,178</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>16,362,861</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>1,592,011</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>26,286,236</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>5,873,390</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>297,291</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>88,710</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>81,160</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>-202,781</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>-9,188</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>309,596</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>-208,825</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>4,937,502</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>196,227</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>6,698,046</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>850,494</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>320,360</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>70,089</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>161,352</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>165,722</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>-38,672</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>-164,175</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>105,615</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>2,986,401</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>6,470,204</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>12,161,752</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>810,830</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>316,396</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>54,542</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>42,231</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>169,019</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>-117,377</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>-18,626</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>55,888</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>4,953,373</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>7,261,355</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>9,713,836</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="n">
+        <v>335</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>1,553,823</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>556,011</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>287,474</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>226,952</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>674,590</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>-190,474</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>-550,436</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>440,019</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>3,713,642</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>3,147,050</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>7,019,587</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="n">
+        <v>23.95</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>242,020</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>24,139</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>-33,033</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>46,457</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>-33,681</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>187,409</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>164,521</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>-456,374</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>840,381</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>928,611</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>3,235,332</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="n">
+        <v>84.3</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>12,418,785</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2,567,871</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>1,172,555</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>969,975</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>1,016,986</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>-461,995</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>-337,765</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>485,682</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>12,462,668</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>10,811,901</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>23,540,243</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="n">
+        <v>254.5</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>16,697,213</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>3,650,059</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>1,298,704</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1,145,033</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>1,090,027</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>193,431</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>-630,748</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>817,207</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>27,072,602</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>7,462,243</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>45,357,317</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="n">
+        <v>38.15</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>13,449,780</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>3,395,973</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>1,085,375</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1,126,169</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>1,822,970</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>-85,302</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>-1,485,350</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>1,054,120</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>29,853,845</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>14,573,067</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>79,862,960</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="n">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>753,653</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>124,076</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>23,435</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>36,780</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>-194,596</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>33,871</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>-201,957</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>1,962,471</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>1,000,678</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>4,635,050</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>4,866,666</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1,042,736</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>333,140</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>392,402</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>49,450</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>-140,579</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>-224,581</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>-145,774</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>12,564,340</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>5,635,296</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>33,736,729</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>226,793,017</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>7,395,259</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>2,146,519</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2,714,769</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>8,257,133</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>-1,749,021</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>-9,067,277</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>6,426,025</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>263,812,659</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>23,562,862</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>362,722,524</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="n">
+        <v>315</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>123,915,618</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>17,304,731</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>5,700,959</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>5,874,795</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>2,506,145</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>1,421,610</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>-15,391,883</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>2,352,481</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>167,303,239</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>9,776,421</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>316,260,050</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="n">
+        <v>15.15</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>34,902,457</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>3,850,082</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>796,858</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1,095,062</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>708,018</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>-623,880</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>-1,094,515</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>96,316</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>74,865,487</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>19,686,197</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>104,288,445</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="n">
+        <v>251.5</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>9,124,537</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>3,616,125</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>1,335,888</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1,327,142</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>1,057,457</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>2,078,715</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>-2,776,485</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>768,614</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>8,594,812</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>8,828,897</t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>29,202,477</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="n">
+        <v>40</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>13,725,410</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2,273,258</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>494,220</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>684,211</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>-328,579</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>830,380</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>-2,340,139</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>-365,539</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>11,577,897</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>4,215,332</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>33,429,095</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>134,884</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>41,047</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>-986</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>344</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>14,225</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>6,135</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>-47,254</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>14,187</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>336,947</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>5,198</t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>1,026,873</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>2,084,966</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>177,471</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>64,164</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>57,915</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>119,197</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>-5,938</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>-72,038</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>115,520</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>3,244,677</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>381,114</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>5,046,425</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="n">
+        <v>189</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>430,334</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>397,121</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>136,726</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>106,257</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>-8,034</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>-17,788</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>-19,434</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>369,498</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>43,288</t>
+        </is>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>2,048,631</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
